--- a/src/test/resources/co/com/prueba/choucair/files/Dataphptravels.xlsx
+++ b/src/test/resources/co/com/prueba/choucair/files/Dataphptravels.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\PruebaChoucair\src\test\resources\co\com\prueba\choucair\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706AD8BB-6934-414B-B930-AC2217C2640A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFC85C-FAF7-462E-B4CB-B6FA8DACCDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Phptravels" sheetId="1" r:id="rId1"/>
+    <sheet name="Posts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Email</t>
   </si>
@@ -42,55 +43,73 @@
     <t>Category Name</t>
   </si>
   <si>
-    <t>testcategories</t>
-  </si>
-  <si>
     <t>NAME_IN_VIETNAMESE</t>
   </si>
   <si>
-    <t>hạng mục kiểm tra</t>
-  </si>
-  <si>
     <t>NAME_IN_RUSSIAN</t>
   </si>
   <si>
-    <t>категории тестов</t>
-  </si>
-  <si>
     <t>NAME_IN_ARABIC</t>
   </si>
   <si>
-    <t>fiat alaikhtibar</t>
-  </si>
-  <si>
     <t>NAME_IN_FARSI</t>
   </si>
   <si>
-    <t>test kategoryen</t>
-  </si>
-  <si>
     <t>NAME_IN_FRENCH</t>
   </si>
   <si>
-    <t>catégories de test</t>
-  </si>
-  <si>
     <t>NAME_IN_SPANICH</t>
   </si>
   <si>
-    <t>categorías de prueba</t>
-  </si>
-  <si>
     <t>NAME_IN_GERMAN</t>
   </si>
   <si>
-    <t>Testkategorien</t>
-  </si>
-  <si>
     <t>NAME_IN_TURKISH</t>
   </si>
   <si>
-    <t>test kategorileri</t>
+    <t>Post Title</t>
+  </si>
+  <si>
+    <t>Jardin Antioquia</t>
+  </si>
+  <si>
+    <t>Permalink</t>
+  </si>
+  <si>
+    <t>https://www.phptravels.net//blog//jardin</t>
+  </si>
+  <si>
+    <t>towns</t>
+  </si>
+  <si>
+    <t>thị trấn</t>
+  </si>
+  <si>
+    <t>города</t>
+  </si>
+  <si>
+    <t>almudun</t>
+  </si>
+  <si>
+    <t>stêden</t>
+  </si>
+  <si>
+    <t>kasabalar</t>
+  </si>
+  <si>
+    <t>les villes</t>
+  </si>
+  <si>
+    <t>pueblos</t>
+  </si>
+  <si>
+    <t>Städte</t>
+  </si>
+  <si>
+    <t>towns descrition</t>
+  </si>
+  <si>
+    <t>The town of jardin antioquia colombia is must beatiful of the world</t>
   </si>
 </sst>
 </file>
@@ -143,7 +162,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -152,6 +171,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -435,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -465,28 +485,28 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -497,31 +517,31 @@
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -566,4 +586,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE6FD83-273A-4241-9A8E-8BD8B9B6E908}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1C0CF3A1-6452-4ADD-AB75-1B7855923ACF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/co/com/prueba/choucair/files/Dataphptravels.xlsx
+++ b/src/test/resources/co/com/prueba/choucair/files/Dataphptravels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\eclipse-workspace\PruebaChoucair\src\test\resources\co\com\prueba\choucair\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CFC85C-FAF7-462E-B4CB-B6FA8DACCDFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FFE346-EB15-4265-A8F0-8A020853D07F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Email</t>
   </si>
@@ -110,6 +110,18 @@
   </si>
   <si>
     <t>The town of jardin antioquia colombia is must beatiful of the world</t>
+  </si>
+  <si>
+    <t>Keywords</t>
+  </si>
+  <si>
+    <t>Travels</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Welcome to jardin</t>
   </si>
 </sst>
 </file>
@@ -590,10 +602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE6FD83-273A-4241-9A8E-8BD8B9B6E908}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -601,9 +613,10 @@
     <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -613,8 +626,14 @@
       <c r="C1" t="s">
         <v>26</v>
       </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -624,8 +643,14 @@
       <c r="C2" t="s">
         <v>27</v>
       </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -633,6 +658,12 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
